--- a/Charts.xlsx
+++ b/Charts.xlsx
@@ -8,51 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hello\Desktop\Seqal\Checkpoint Model\SEQAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{064FC17F-BB39-410F-81CC-B84990BADA9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F9EBE30-39CC-441F-AA7D-CB02C86A6DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4890" yWindow="0" windowWidth="32625" windowHeight="21000" xr2:uid="{26E7D513-0C67-4561-937A-ED2BF2528E84}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{26E7D513-0C67-4561-937A-ED2BF2528E84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!#REF!</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$2:$C$2</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$K$9:$K$14</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$L$10:$L$14</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$L$9:$L$14</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$K$10:$K$14</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$K$9</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$L$10:$L$14</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$L$9</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$K$10:$K$14</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$K$9</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$L$10:$L$14</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$2:$E$2</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$L$9</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$K$10:$K$14</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$K$9</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$L$10:$L$14</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$L$9</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$K$10:$K$14</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$K$9</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$L$10:$L$14</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Sheet1!$L$9</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Sheet1!$K$10:$K$14</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$3:$C$3</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Sheet1!$K$9</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Sheet1!$L$10:$L$14</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">Sheet1!$L$9</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$D$2:$E$2</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$D$3:$E$3</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$G$10:$I$10</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$G$11:$I$11</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$H$2:$K$2</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$K$10:$K$14</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$K$10:$K$14</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$K$9</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$L$10:$L$14</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$L$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="354" r:id="rId2"/>
+    <pivotCache cacheId="0" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -74,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
   <si>
     <t>Half-W</t>
   </si>
@@ -108,13 +79,25 @@
   <si>
     <t>Grouped</t>
   </si>
+  <si>
+    <t>Avg</t>
+  </si>
+  <si>
+    <t>HW</t>
+  </si>
+  <si>
+    <t>Custom--&gt;Range</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -264,8 +247,8 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -279,42 +262,60 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="18">
     <dxf>
-      <numFmt numFmtId="166" formatCode="[=400000000000000000000]&quot;NoCalc&quot;;;"/>
+      <numFmt numFmtId="165" formatCode="[=400000000000000000000]&quot;NoCalc&quot;;;"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[=300000000000000000000]&quot;Correlated&quot;;;"/>
+      <numFmt numFmtId="166" formatCode="[=300000000000000000000]&quot;Correlated&quot;;;"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="[=200000000000000000000]&quot;Insufficient&quot;;;"/>
+      <numFmt numFmtId="167" formatCode="[=200000000000000000000]&quot;Insufficient&quot;;;"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="[=400000000000000000000]&quot;NoCalc&quot;;;"/>
+      <numFmt numFmtId="165" formatCode="[=400000000000000000000]&quot;NoCalc&quot;;;"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[=300000000000000000000]&quot;Correlated&quot;;;"/>
+      <numFmt numFmtId="166" formatCode="[=300000000000000000000]&quot;Correlated&quot;;;"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="[=200000000000000000000]&quot;Insufficient&quot;;;"/>
+      <numFmt numFmtId="167" formatCode="[=200000000000000000000]&quot;Insufficient&quot;;;"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="[=400000000000000000000]&quot;NoCalc&quot;;;"/>
+      <numFmt numFmtId="165" formatCode="[=400000000000000000000]&quot;NoCalc&quot;;;"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[=300000000000000000000]&quot;Correlated&quot;;;"/>
+      <numFmt numFmtId="166" formatCode="[=300000000000000000000]&quot;Correlated&quot;;;"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="[=200000000000000000000]&quot;Insufficient&quot;;;"/>
+      <numFmt numFmtId="167" formatCode="[=200000000000000000000]&quot;Insufficient&quot;;;"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="[=400000000000000000000]&quot;NoCalc&quot;;;"/>
+      <numFmt numFmtId="165" formatCode="[=400000000000000000000]&quot;NoCalc&quot;;;"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[=300000000000000000000]&quot;Correlated&quot;;;"/>
+      <numFmt numFmtId="166" formatCode="[=300000000000000000000]&quot;Correlated&quot;;;"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="[=200000000000000000000]&quot;Insufficient&quot;;;"/>
+      <numFmt numFmtId="167" formatCode="[=200000000000000000000]&quot;Insufficient&quot;;;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[=400000000000000000000]&quot;NoCalc&quot;;;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="[=300000000000000000000]&quot;Correlated&quot;;;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="[=200000000000000000000]&quot;Insufficient&quot;;;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[=400000000000000000000]&quot;NoCalc&quot;;;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="[=300000000000000000000]&quot;Correlated&quot;;;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="[=200000000000000000000]&quot;Insufficient&quot;;;"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -329,170 +330,1198 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Single</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-81BD-4705-BF8B-888D97491CC6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Grouped</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7.4509999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-81BD-4705-BF8B-888D97491CC6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="521124352"/>
+        <c:axId val="521133952"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="521124352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="521133952"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="521133952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="521124352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12877537182852145"/>
+          <c:y val="7.407407407407407E-2"/>
+          <c:w val="0.87122462817147861"/>
+          <c:h val="0.8416746864975212"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Single</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:extLst>
+                  <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c15:fullRef>
+                      <c15:sqref>Sheet1!$O$10:$O$11</c15:sqref>
+                    </c15:fullRef>
+                  </c:ext>
+                </c:extLst>
+                <c:f>Sheet1!$O$10</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>7.1468938045562813E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:extLst>
+                  <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c15:fullRef>
+                      <c15:sqref>Sheet1!$O$10:$O$11</c15:sqref>
+                    </c15:fullRef>
+                  </c:ext>
+                </c:extLst>
+                <c:f>Sheet1!$O$10</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>7.1468938045562813E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{F5D05F6E-A05E-4728-AFD3-386EB277150F}">
+                  <c16:filteredLitCache>
+                    <c:strCache>
+                      <c:ptCount val="0"/>
+                    </c:strCache>
+                  </c16:filteredLitCache>
+                </c:ext>
+              </c:extLst>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$K$10:$K$12</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6.2464097165262737</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7DDB-4BB9-BB5B-6A7A16FA4FAA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Grouped</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{F5D05F6E-A05E-4728-AFD3-386EB277150F}">
+                  <c16:filteredLitCache>
+                    <c:strCache>
+                      <c:ptCount val="0"/>
+                    </c:strCache>
+                  </c16:filteredLitCache>
+                </c:ext>
+              </c:extLst>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$L$10:$L$12</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>7.4509999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7DDB-4BB9-BB5B-6A7A16FA4FAA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="79607792"/>
+        <c:axId val="79610672"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="79607792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="79610672"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="79610672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="79607792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Checkpoint</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Model</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Single</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$I$2</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>7.1468938045562813E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$I$2</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>7.1468938045562813E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$O$1:$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Min</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Avg</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Max</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$2:$Q$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.7719952606423401</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.2464097165262737</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.9649734105951397</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FE8D-4E72-91AC-505A119CFC9F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Grouped</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$C$2</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>0.44710818518481676</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$C$2</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>0.44710818518481676</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$O$1:$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Min</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Avg</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Max</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$3:$Q$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="0.000">
+                  <c:v>5.2884322140822269</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.4509999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.000">
+                  <c:v>14.149914850691816</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FE8D-4E72-91AC-505A119CFC9F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2077839280"/>
+        <c:axId val="2077840240"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2077839280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2077840240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2077840240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Total</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Time(Minutes)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2077839280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
-      <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.0</cx:f>
-      </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.11</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.0</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.9</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:txData>
-          <cx:v>Total Time At Checkpoint</cx:v>
-        </cx:txData>
-      </cx:tx>
-      <cx:txPr>
-        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-            </a:rPr>
-            <a:t>Total Time At Checkpoint</a:t>
-          </a:r>
-        </a:p>
-      </cx:txPr>
-    </cx:title>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{00000006-75BA-406E-BCBC-AC034A3083C5}">
-          <cx:tx>
-            <cx:txData>
-              <cx:v>Grouped</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:ln>
-          </cx:spPr>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="1" meanMarker="1" nonoutliers="1" outliers="1"/>
-            <cx:statistics quartileMethod="inclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{00000007-75BA-406E-BCBC-AC034A3083C5}">
-          <cx:tx>
-            <cx:txData>
-              <cx:v>Single</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling gapWidth="5"/>
-        <cx:title>
-          <cx:tx>
-            <cx:txData>
-              <cx:v>Single                         Grouped</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:txPr>
-            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:sysClr>
-                  </a:solidFill>
-                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-                </a:rPr>
-                <a:t>Single                         Grouped</a:t>
-              </a:r>
-            </a:p>
-          </cx:txPr>
-        </cx:title>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:title>
-          <cx:tx>
-            <cx:txData>
-              <cx:v>Wait Time (Minutes)</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:txPr>
-            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:sysClr>
-                  </a:solidFill>
-                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-                </a:rPr>
-                <a:t>Wait Time (Minutes)</a:t>
-              </a:r>
-            </a:p>
-          </cx:txPr>
-        </cx:title>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.17</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.19</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -503,7 +1532,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C80CECB5-4D02-4CA9-A517-21EF5B362C48}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.18</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>Single</cx:v>
             </cx:txData>
           </cx:tx>
@@ -516,7 +1545,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{68195789-19E4-4231-A808-6EDB9C7DA4AD}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.20</cx:f>
+              <cx:f>_xlchart.v1.3</cx:f>
               <cx:v>Grouped</cx:v>
             </cx:txData>
           </cx:tx>
@@ -669,6 +1698,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
@@ -1185,7 +2294,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1196,7 +2305,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -1219,7 +2328,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
@@ -1242,7 +2351,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -1250,11 +2359,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -1279,53 +2388,36 @@
         </a:solidFill>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -1340,8 +2432,10 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
@@ -1349,12 +2443,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
@@ -1364,13 +2455,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1389,16 +2480,18 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataTable>
   <cs:downBar>
     <cs:lnRef idx="0"/>
@@ -1469,6 +2562,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -1500,8 +2599,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1556,7 +2655,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
   <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
@@ -1584,18 +2683,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
     <cs:lnRef idx="0"/>
@@ -1605,9 +2693,12 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat">
-        <a:solidFill>
-          <a:srgbClr val="D9D9D9"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -1623,7 +2714,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1639,7 +2730,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDash"/>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1653,7 +2744,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -1686,7 +2777,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
@@ -1695,90 +2786,1024 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>458665</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>125290</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>521676</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>10990</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="2" name="Chart 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9506F95F-186C-C148-B380-707888840A04}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4290646" y="2982790"/>
-              <a:ext cx="4561742" cy="2743200"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -1836,16 +3861,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>263769</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>51288</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>109903</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>139211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>417634</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>34434</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>263768</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>122357</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -1866,7 +3891,7 @@
           </xdr:xfrm>
           <a:graphic>
             <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
             </a:graphicData>
           </a:graphic>
         </xdr:graphicFrame>
@@ -1881,7 +3906,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="11027019" y="432288"/>
+              <a:off x="12697557" y="710711"/>
               <a:ext cx="1978269" cy="3412146"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1912,6 +3937,114 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>421298</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>641106</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5DA459B-AA6C-F1FE-CC7F-8D4CA77E771C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>168519</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>24178</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>483577</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>100378</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BF71957-EA76-272E-29F4-00F0B8CB4959}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>329711</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>36634</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6DF05D6-261D-B1C9-BC59-F6F8ECBCBE05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1927,19 +4060,19 @@
         <s v="Wait Time"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Avg(over 50)" numFmtId="167">
+    <cacheField name="Avg(over 50)" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.0569479019190315" maxValue="7.4512583117385907"/>
     </cacheField>
-    <cacheField name="Half-W" numFmtId="167">
+    <cacheField name="Half-W" numFmtId="164">
       <sharedItems containsMixedTypes="1" containsNumber="1" minValue="0.44710818518481676" maxValue="0.44710818518481676" count="2">
         <n v="0.44710818518481676"/>
         <s v="0.845161589315189/2.2"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Min" numFmtId="167">
+    <cacheField name="Min" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.5605618516691091" maxValue="5.2884322140822269"/>
     </cacheField>
-    <cacheField name="Max" numFmtId="167">
+    <cacheField name="Max" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="8.1712823840155906" maxValue="14.149914850691816"/>
     </cacheField>
   </cacheFields>
@@ -1971,7 +4104,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{063BD253-6DA6-41EB-94D0-D663AA9004BF}" name="PivotTable1" cacheId="354" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{063BD253-6DA6-41EB-94D0-D663AA9004BF}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B7:D24" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="5">
     <pivotField showAll="0">
@@ -1981,7 +4114,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
     <pivotField showAll="0">
       <items count="3">
         <item x="0"/>
@@ -1989,8 +4122,8 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField numFmtId="167" showAll="0"/>
-    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
   </pivotFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -2301,10 +4434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B19536-E5DB-4961-AC63-2E3F4822DAD3}">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="V23" sqref="V23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2316,7 +4449,7 @@
     <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -2347,8 +4480,20 @@
       <c r="K1" t="s">
         <v>2</v>
       </c>
+      <c r="N1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2384,8 +4529,20 @@
       <c r="K2" s="1">
         <v>6.9649734105951397</v>
       </c>
+      <c r="N2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="1">
+        <v>5.7719952606423401</v>
+      </c>
+      <c r="P2" s="1">
+        <v>6.2464097165262737</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>6.9649734105951397</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2420,13 +4577,27 @@
       <c r="K3" s="2">
         <v>1.14796185143237</v>
       </c>
+      <c r="N3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="1">
+        <f>11.6345508709809/2.2</f>
+        <v>5.2884322140822269</v>
+      </c>
+      <c r="P3">
+        <v>7.4509999999999996</v>
+      </c>
+      <c r="Q3" s="1">
+        <f>31.129812671522/2.2</f>
+        <v>14.149914850691816</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
       <c r="C8" s="7"/>
       <c r="D8" s="8"/>
@@ -2434,7 +4605,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B9" s="6"/>
       <c r="C9" s="7"/>
       <c r="D9" s="8"/>
@@ -2444,8 +4615,14 @@
       <c r="L9" t="s">
         <v>10</v>
       </c>
+      <c r="N9" t="s">
+        <v>11</v>
+      </c>
+      <c r="O9" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
       <c r="C10" s="7"/>
       <c r="D10" s="8"/>
@@ -2463,14 +4640,23 @@
         <f>G10+0.071</f>
         <v>6.3174097165262735</v>
       </c>
+      <c r="J10" t="s">
+        <v>11</v>
+      </c>
       <c r="K10" s="1">
         <v>6.2464097165262737</v>
       </c>
       <c r="L10">
         <v>7.4509999999999996</v>
       </c>
+      <c r="N10" s="1">
+        <v>6.2464097165262737</v>
+      </c>
+      <c r="O10" s="1">
+        <v>7.1468938045562813E-2</v>
+      </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
       <c r="D11" s="8"/>
@@ -2488,61 +4674,65 @@
         <f>G11-0.447</f>
         <v>7.0039999999999996</v>
       </c>
+      <c r="J11" t="s">
+        <v>1</v>
+      </c>
       <c r="K11" s="1">
-        <f>K10-0.071</f>
-        <v>6.175409716526274</v>
-      </c>
-      <c r="L11">
-        <f>L10+0.447</f>
-        <v>7.8979999999999997</v>
+        <v>5.7719952606423401</v>
+      </c>
+      <c r="L11" s="1">
+        <f>11.6345508709809/2.2</f>
+        <v>5.2884322140822269</v>
+      </c>
+      <c r="N11">
+        <v>7.4509999999999996</v>
+      </c>
+      <c r="O11" s="1">
+        <f>0.983638007406597/2.2</f>
+        <v>0.44710818518481676</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B12" s="6"/>
       <c r="C12" s="7"/>
       <c r="D12" s="8"/>
+      <c r="J12" t="s">
+        <v>2</v>
+      </c>
       <c r="K12" s="1">
-        <f>K10+0.071</f>
-        <v>6.3174097165262735</v>
-      </c>
-      <c r="L12">
-        <f>L10-0.447</f>
-        <v>7.0039999999999996</v>
+        <v>6.9649734105951397</v>
+      </c>
+      <c r="L12" s="1">
+        <f>31.129812671522/2.2</f>
+        <v>14.149914850691816</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
       <c r="D13" s="8"/>
-      <c r="K13" s="1">
-        <v>5.7719952606423401</v>
-      </c>
-      <c r="L13" s="1">
-        <f>11.6345508709809/2.2</f>
-        <v>5.2884322140822269</v>
-      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
       <c r="D14" s="8"/>
-      <c r="K14" s="1">
-        <v>6.9649734105951397</v>
-      </c>
-      <c r="L14" s="1">
-        <f>31.129812671522/2.2</f>
-        <v>14.149914850691816</v>
-      </c>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
       <c r="D16" s="8"/>
+      <c r="K16" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="6"/>
@@ -2586,63 +4776,93 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="11" priority="12">
+    <cfRule type="expression" dxfId="17" priority="18">
       <formula>C2=200000000000000000000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="16" priority="17">
       <formula>C2=300000000000000000000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="9" priority="10">
+    <cfRule type="expression" dxfId="15" priority="16">
       <formula>C2=400000000000000000000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="14" priority="15">
       <formula>C3=200000000000000000000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="13" priority="14">
       <formula>C3=300000000000000000000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="12" priority="13">
       <formula>C3=400000000000000000000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="11" priority="12">
       <formula>I2=200000000000000000000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="10" priority="11">
       <formula>I2=300000000000000000000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="9" priority="10">
       <formula>I2=400000000000000000000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="8" priority="9">
       <formula>I3=200000000000000000000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>I3=300000000000000000000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>I3=400000000000000000000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O11">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>O11=200000000000000000000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O11">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>O11=300000000000000000000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O11">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>O11=400000000000000000000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O10">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>O10=200000000000000000000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O10">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>O10=300000000000000000000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O10">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>I3=400000000000000000000</formula>
+      <formula>O10=400000000000000000000</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Charts.xlsx
+++ b/Charts.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hello\Desktop\Seqal\Checkpoint Model\SEQAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F9EBE30-39CC-441F-AA7D-CB02C86A6DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07EC6E0A-A872-43BB-A78D-8ACCBE513668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{26E7D513-0C67-4561-937A-ED2BF2528E84}"/>
+    <workbookView minimized="1" xWindow="5235" yWindow="3120" windowWidth="28800" windowHeight="15675" xr2:uid="{26E7D513-0C67-4561-937A-ED2BF2528E84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$K$10:$K$14</definedName>
@@ -23,7 +24,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId2"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="16">
   <si>
     <t>Half-W</t>
   </si>
@@ -90,6 +91,9 @@
   </si>
   <si>
     <t>Model</t>
+  </si>
+  <si>
+    <t>Wait</t>
   </si>
 </sst>
 </file>
@@ -641,13 +645,6 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:extLst>
-                  <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                    <c15:fullRef>
-                      <c15:sqref>Sheet1!$O$10:$O$11</c15:sqref>
-                    </c15:fullRef>
-                  </c:ext>
-                </c:extLst>
                 <c:f>Sheet1!$O$10</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
@@ -656,17 +653,11 @@
                     <c:v>7.1468938045562813E-2</c:v>
                   </c:pt>
                 </c:numCache>
+                <c:extLst/>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:extLst>
-                  <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                    <c15:fullRef>
-                      <c15:sqref>Sheet1!$O$10:$O$11</c15:sqref>
-                    </c15:fullRef>
-                  </c:ext>
-                </c:extLst>
                 <c:f>Sheet1!$O$10</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
@@ -675,6 +666,7 @@
                     <c:v>7.1468938045562813E-2</c:v>
                   </c:pt>
                 </c:numCache>
+                <c:extLst/>
               </c:numRef>
             </c:minus>
             <c:spPr>
@@ -692,34 +684,15 @@
             </c:spPr>
           </c:errBars>
           <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{F5D05F6E-A05E-4728-AFD3-386EB277150F}">
-                  <c16:filteredLitCache>
-                    <c:strCache>
-                      <c:ptCount val="0"/>
-                    </c:strCache>
-                  </c16:filteredLitCache>
-                </c:ext>
-              </c:extLst>
-              <c:f/>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Average</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>Average</c:v>
+              </c:pt>
+            </c:strLit>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$K$10:$K$12</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
               <c:f>Sheet1!$K$10</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
@@ -728,6 +701,7 @@
                   <c:v>6.2464097165262737</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst/>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -753,42 +727,24 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{F5D05F6E-A05E-4728-AFD3-386EB277150F}">
-                  <c16:filteredLitCache>
-                    <c:strCache>
-                      <c:ptCount val="0"/>
-                    </c:strCache>
-                  </c16:filteredLitCache>
-                </c:ext>
-              </c:extLst>
-              <c:f/>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Average</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>Average</c:v>
+              </c:pt>
+            </c:strLit>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$L$10:$L$12</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
               <c:f>Sheet1!$L$10</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
-                <c:pt idx="0" formatCode="General">
+                <c:pt idx="0">
                   <c:v>7.4509999999999996</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst/>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -1511,6 +1467,547 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Checkpoint Model</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$S$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Single</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$I$3</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>4.5229136780020357E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$I$3</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>4.5229136780020357E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$T$1:$V$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Min</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Avg</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Max</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$2:$V$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.32737752576294898</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.57601823206331915</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.14796185143237</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B3E1-4B5F-9BC3-6F4229074A19}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$S$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Grouped</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$C$3</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$C$3</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$T$1:$V$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Min</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Avg</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Max</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$3:$V$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.5605618516691091</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0569479019190315</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.1712823840155906</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B3E1-4B5F-9BC3-6F4229074A19}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2077839280"/>
+        <c:axId val="2077840240"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2077839280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2077840240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2077840240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Wait Times(Minutes)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2077839280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
@@ -1526,7 +2023,13 @@
     </cx:data>
   </cx:chartData>
   <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Chart Title</cx:v>
+        </cx:txData>
+      </cx:tx>
+    </cx:title>
     <cx:plotArea>
       <cx:plotAreaRegion>
         <cx:series layoutId="boxWhisker" uniqueId="{C80CECB5-4D02-4CA9-A517-21EF5B362C48}">
@@ -1778,6 +2281,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
@@ -3300,6 +3843,509 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3861,16 +4907,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>109903</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>139211</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>315056</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>80596</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>263768</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>122357</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>468922</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>63742</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -3906,7 +4952,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="12697557" y="710711"/>
+              <a:off x="8645768" y="4462096"/>
               <a:ext cx="1978269" cy="3412146"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4012,13 +5058,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>329711</xdr:colOff>
+      <xdr:colOff>329710</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>36634</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>117230</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
@@ -4040,6 +5086,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>761999</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>131884</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>461595</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>73269</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCC69D3D-EDE3-4F9A-894C-8059F375F0F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4434,10 +5518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B19536-E5DB-4961-AC63-2E3F4822DAD3}">
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:V24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="V23" sqref="V23"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4449,7 +5533,7 @@
     <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -4492,8 +5576,20 @@
       <c r="Q1" t="s">
         <v>2</v>
       </c>
+      <c r="S1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -4541,8 +5637,20 @@
       <c r="Q2" s="1">
         <v>6.9649734105951397</v>
       </c>
+      <c r="S2" t="s">
+        <v>7</v>
+      </c>
+      <c r="T2" s="2">
+        <v>0.32737752576294898</v>
+      </c>
+      <c r="U2" s="2">
+        <v>0.57601823206331915</v>
+      </c>
+      <c r="V2" s="2">
+        <v>1.14796185143237</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -4591,13 +5699,28 @@
         <f>31.129812671522/2.2</f>
         <v>14.149914850691816</v>
       </c>
+      <c r="S3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T3" s="2">
+        <f>1.23323607367204/2.2</f>
+        <v>0.5605618516691091</v>
+      </c>
+      <c r="U3" s="2">
+        <f>4.52528538422187/2.2</f>
+        <v>2.0569479019190315</v>
+      </c>
+      <c r="V3" s="2">
+        <f>17.9768212448343/2.2</f>
+        <v>8.1712823840155906</v>
+      </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
       <c r="C8" s="7"/>
       <c r="D8" s="8"/>
@@ -4605,7 +5728,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B9" s="6"/>
       <c r="C9" s="7"/>
       <c r="D9" s="8"/>
@@ -4622,7 +5745,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
       <c r="C10" s="7"/>
       <c r="D10" s="8"/>
@@ -4656,7 +5779,7 @@
         <v>7.1468938045562813E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
       <c r="D11" s="8"/>
@@ -4692,7 +5815,7 @@
         <v>0.44710818518481676</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B12" s="6"/>
       <c r="C12" s="7"/>
       <c r="D12" s="8"/>
@@ -4707,26 +5830,30 @@
         <v>14.149914850691816</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
       <c r="D13" s="8"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
+      <c r="P13">
+        <f>6.246/7.451</f>
+        <v>0.83827674137699648</v>
+      </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
       <c r="D14" s="8"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
       <c r="D16" s="8"/>
@@ -4868,4 +5995,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC9F0F60-333C-4170-81F8-F35630AF7655}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>